--- a/data/路网节点经纬度中心城区.xlsx
+++ b/data/路网节点经纬度中心城区.xlsx
@@ -2490,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139:A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4849,6 +4849,448 @@
         <v>31.565215999999999</v>
       </c>
     </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1963</v>
+      </c>
+      <c r="B139">
+        <v>120.305241043238</v>
+      </c>
+      <c r="C139">
+        <v>31.565120819318899</v>
+      </c>
+      <c r="D139">
+        <v>120.307011651849</v>
+      </c>
+      <c r="E139">
+        <v>31.565699169576501</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1961</v>
+      </c>
+      <c r="B140">
+        <v>120.299102741594</v>
+      </c>
+      <c r="C140">
+        <v>31.579702811276899</v>
+      </c>
+      <c r="D140">
+        <v>120.295331031326</v>
+      </c>
+      <c r="E140">
+        <v>31.579349243545501</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1949</v>
+      </c>
+      <c r="B141">
+        <v>120.309774601613</v>
+      </c>
+      <c r="C141">
+        <v>31.575395531081298</v>
+      </c>
+      <c r="D141">
+        <v>120.306473828292</v>
+      </c>
+      <c r="E141">
+        <v>31.580084531741399</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1933</v>
+      </c>
+      <c r="B142">
+        <v>120.307372134722</v>
+      </c>
+      <c r="C142">
+        <v>31.566096396478802</v>
+      </c>
+      <c r="D142">
+        <v>120.305224431581</v>
+      </c>
+      <c r="E142">
+        <v>31.565216398860699</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1927</v>
+      </c>
+      <c r="B143">
+        <v>120.308985526556</v>
+      </c>
+      <c r="C143">
+        <v>31.572447315393301</v>
+      </c>
+      <c r="D143">
+        <v>120.30955170663</v>
+      </c>
+      <c r="E143">
+        <v>31.5741749806092</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1921</v>
+      </c>
+      <c r="B144">
+        <v>120.30256463112499</v>
+      </c>
+      <c r="C144">
+        <v>31.570953820133202</v>
+      </c>
+      <c r="D144">
+        <v>120.308770435996</v>
+      </c>
+      <c r="E144">
+        <v>31.5722773405822</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1915</v>
+      </c>
+      <c r="B145">
+        <v>120.307615085614</v>
+      </c>
+      <c r="C145">
+        <v>31.559678244086601</v>
+      </c>
+      <c r="D145">
+        <v>120.305254046096</v>
+      </c>
+      <c r="E145">
+        <v>31.5649732303219</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1912</v>
+      </c>
+      <c r="B146">
+        <v>120.308970196844</v>
+      </c>
+      <c r="C146">
+        <v>31.572331182425</v>
+      </c>
+      <c r="D146">
+        <v>120.315212454639</v>
+      </c>
+      <c r="E146">
+        <v>31.572845921031099</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1449</v>
+      </c>
+      <c r="B147">
+        <v>120.295753726231</v>
+      </c>
+      <c r="C147">
+        <v>31.580560097887702</v>
+      </c>
+      <c r="D147">
+        <v>120.295227438328</v>
+      </c>
+      <c r="E147">
+        <v>31.579371000079199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1138</v>
+      </c>
+      <c r="B148">
+        <v>120.296780123506</v>
+      </c>
+      <c r="C148">
+        <v>31.5680818384551</v>
+      </c>
+      <c r="D148">
+        <v>120.29567424636799</v>
+      </c>
+      <c r="E148">
+        <v>31.5665531670445</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1104</v>
+      </c>
+      <c r="B149">
+        <v>120.305125591493</v>
+      </c>
+      <c r="C149">
+        <v>31.5649626207958</v>
+      </c>
+      <c r="D149">
+        <v>120.305235545683</v>
+      </c>
+      <c r="E149">
+        <v>31.5640650372052</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>824</v>
+      </c>
+      <c r="B150">
+        <v>120.293439473531</v>
+      </c>
+      <c r="C150">
+        <v>31.571453204004499</v>
+      </c>
+      <c r="D150">
+        <v>120.29479085076299</v>
+      </c>
+      <c r="E150">
+        <v>31.5701779697992</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>819</v>
+      </c>
+      <c r="B151">
+        <v>120.297696397031</v>
+      </c>
+      <c r="C151">
+        <v>31.5829295965051</v>
+      </c>
+      <c r="D151">
+        <v>120.296400150632</v>
+      </c>
+      <c r="E151">
+        <v>31.581908979873202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>818</v>
+      </c>
+      <c r="B152">
+        <v>120.296400150632</v>
+      </c>
+      <c r="C152">
+        <v>31.581908979873202</v>
+      </c>
+      <c r="D152">
+        <v>120.295753726231</v>
+      </c>
+      <c r="E152">
+        <v>31.580560097887702</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>188</v>
+      </c>
+      <c r="B153">
+        <v>120.30701420872199</v>
+      </c>
+      <c r="C153">
+        <v>31.5721225854236</v>
+      </c>
+      <c r="D153">
+        <v>120.304989016422</v>
+      </c>
+      <c r="E153">
+        <v>31.571784640730101</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154">
+        <v>120.295202110237</v>
+      </c>
+      <c r="C154">
+        <v>31.579313561812</v>
+      </c>
+      <c r="D154">
+        <v>120.294412149937</v>
+      </c>
+      <c r="E154">
+        <v>31.5775861782028</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>126</v>
+      </c>
+      <c r="B155">
+        <v>120.297083762537</v>
+      </c>
+      <c r="C155">
+        <v>31.568608509207699</v>
+      </c>
+      <c r="D155">
+        <v>120.29501812953799</v>
+      </c>
+      <c r="E155">
+        <v>31.569868465372501</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>118</v>
+      </c>
+      <c r="B156">
+        <v>120.293561796158</v>
+      </c>
+      <c r="C156">
+        <v>31.572819751184898</v>
+      </c>
+      <c r="D156">
+        <v>120.293439473531</v>
+      </c>
+      <c r="E156">
+        <v>31.571453204004499</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>96</v>
+      </c>
+      <c r="B157">
+        <v>120.317265384348</v>
+      </c>
+      <c r="C157">
+        <v>31.572960836654399</v>
+      </c>
+      <c r="D157">
+        <v>120.308985526556</v>
+      </c>
+      <c r="E157">
+        <v>31.572447315393301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>76</v>
+      </c>
+      <c r="B158">
+        <v>120.30513071793899</v>
+      </c>
+      <c r="C158">
+        <v>31.5651984453267</v>
+      </c>
+      <c r="D158">
+        <v>120.302158451802</v>
+      </c>
+      <c r="E158">
+        <v>31.5660434669993</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>74</v>
+      </c>
+      <c r="B159">
+        <v>120.302158451802</v>
+      </c>
+      <c r="C159">
+        <v>31.5660434669993</v>
+      </c>
+      <c r="D159">
+        <v>120.297083762537</v>
+      </c>
+      <c r="E159">
+        <v>31.568608509207699</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>60</v>
+      </c>
+      <c r="B160">
+        <v>120.309523957633</v>
+      </c>
+      <c r="C160">
+        <v>31.576342955573399</v>
+      </c>
+      <c r="D160">
+        <v>120.309445470894</v>
+      </c>
+      <c r="E160">
+        <v>31.5741978006793</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>51</v>
+      </c>
+      <c r="B161">
+        <v>120.308118271563</v>
+      </c>
+      <c r="C161">
+        <v>31.564921765952899</v>
+      </c>
+      <c r="D161">
+        <v>120.307437521602</v>
+      </c>
+      <c r="E161">
+        <v>31.566156509626801</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>40</v>
+      </c>
+      <c r="B162">
+        <v>120.29415826507901</v>
+      </c>
+      <c r="C162">
+        <v>31.576884292571101</v>
+      </c>
+      <c r="D162">
+        <v>120.293922008378</v>
+      </c>
+      <c r="E162">
+        <v>31.5751450740194</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>39</v>
+      </c>
+      <c r="B163">
+        <v>120.293922008378</v>
+      </c>
+      <c r="C163">
+        <v>31.5751450740194</v>
+      </c>
+      <c r="D163">
+        <v>120.29368687515201</v>
+      </c>
+      <c r="E163">
+        <v>31.573645968893999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>32</v>
+      </c>
+      <c r="B164">
+        <v>120.306473828292</v>
+      </c>
+      <c r="C164">
+        <v>31.580084531741399</v>
+      </c>
+      <c r="D164">
+        <v>120.304129489662</v>
+      </c>
+      <c r="E164">
+        <v>31.580928358497601</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
